--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_Block_Bootstrapping.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_Block_Bootstrapping.xlsx
@@ -441,25 +441,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>94.89919565179493</v>
+        <v>90.24289326583003</v>
       </c>
       <c r="C2">
-        <v>99.34287741903557</v>
+        <v>98.1782788587816</v>
       </c>
       <c r="D2">
-        <v>99.02083244783057</v>
+        <v>99.19920125579111</v>
       </c>
       <c r="E2">
-        <v>98.54112397247975</v>
+        <v>98.73987505215101</v>
       </c>
       <c r="F2">
-        <v>97.97717253347834</v>
+        <v>98.17220659814672</v>
       </c>
       <c r="G2">
-        <v>97.06516502538722</v>
+        <v>97.28106676651231</v>
       </c>
       <c r="H2">
-        <v>95.71210260315199</v>
+        <v>95.85272679458778</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -467,25 +467,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>86.5270078852304</v>
+        <v>86.66420041677169</v>
       </c>
       <c r="C3">
-        <v>99.13814837478002</v>
+        <v>98.99261120101555</v>
       </c>
       <c r="D3">
-        <v>98.96294510228908</v>
+        <v>99.58964837833082</v>
       </c>
       <c r="E3">
-        <v>98.55208392438713</v>
+        <v>98.8449383378661</v>
       </c>
       <c r="F3">
-        <v>98.01195618019919</v>
+        <v>98.3636267153795</v>
       </c>
       <c r="G3">
-        <v>97.01400481496766</v>
+        <v>97.37171014259977</v>
       </c>
       <c r="H3">
-        <v>95.70545402985073</v>
+        <v>95.91010739096014</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -493,25 +493,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>94.40185876967161</v>
+        <v>94.33738164400928</v>
       </c>
       <c r="C4">
-        <v>99.2507371512617</v>
+        <v>97.86412062728314</v>
       </c>
       <c r="D4">
-        <v>98.92723311004178</v>
+        <v>99.10213018444192</v>
       </c>
       <c r="E4">
-        <v>98.49262282133986</v>
+        <v>98.57116311647809</v>
       </c>
       <c r="F4">
-        <v>98.07447548620112</v>
+        <v>98.23898967161837</v>
       </c>
       <c r="G4">
-        <v>97.06010459010268</v>
+        <v>97.25593664026223</v>
       </c>
       <c r="H4">
-        <v>95.6474668920544</v>
+        <v>95.86225576904164</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -519,25 +519,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>94.49274294778895</v>
+        <v>92.29346765361748</v>
       </c>
       <c r="C5">
-        <v>99.25448724072936</v>
+        <v>97.95808761130533</v>
       </c>
       <c r="D5">
-        <v>99.02851420368047</v>
+        <v>99.1528054808286</v>
       </c>
       <c r="E5">
-        <v>98.52800008008455</v>
+        <v>98.70687509320229</v>
       </c>
       <c r="F5">
-        <v>98.10135311851043</v>
+        <v>98.17514546641543</v>
       </c>
       <c r="G5">
-        <v>97.14257470755183</v>
+        <v>97.20486814516414</v>
       </c>
       <c r="H5">
-        <v>95.69372047888807</v>
+        <v>95.78470893019076</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -545,25 +545,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>93.32795545748972</v>
+        <v>92.14276577482143</v>
       </c>
       <c r="C6">
-        <v>99.28182817315326</v>
+        <v>98.0929579474619</v>
       </c>
       <c r="D6">
-        <v>99.11831889257813</v>
+        <v>99.19940667875612</v>
       </c>
       <c r="E6">
-        <v>98.4687494160134</v>
+        <v>98.71080731321884</v>
       </c>
       <c r="F6">
-        <v>97.90919801305073</v>
+        <v>98.13576439212216</v>
       </c>
       <c r="G6">
-        <v>97.09661941361595</v>
+        <v>97.28421410094825</v>
       </c>
       <c r="H6">
-        <v>95.58845547293863</v>
+        <v>95.84252205580394</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_Block_Bootstrapping.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_Block_Bootstrapping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>d=1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +438,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>90.24289326583003</v>
@@ -456,15 +462,18 @@
         <v>98.17220659814672</v>
       </c>
       <c r="G2">
+        <v>97.70571711987347</v>
+      </c>
+      <c r="H2">
         <v>97.28106676651231</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>95.85272679458778</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>86.66420041677169</v>
@@ -482,15 +491,18 @@
         <v>98.3636267153795</v>
       </c>
       <c r="G3">
+        <v>97.83009366944107</v>
+      </c>
+      <c r="H3">
         <v>97.37171014259977</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>95.91010739096014</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>94.33738164400928</v>
@@ -508,15 +520,18 @@
         <v>98.23898967161837</v>
       </c>
       <c r="G4">
+        <v>97.75969875795748</v>
+      </c>
+      <c r="H4">
         <v>97.25593664026223</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>95.86225576904164</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>92.29346765361748</v>
@@ -534,15 +549,18 @@
         <v>98.17514546641543</v>
       </c>
       <c r="G5">
+        <v>97.70414593527714</v>
+      </c>
+      <c r="H5">
         <v>97.20486814516414</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>95.78470893019076</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>92.14276577482143</v>
@@ -560,9 +578,12 @@
         <v>98.13576439212216</v>
       </c>
       <c r="G6">
+        <v>97.75012670431555</v>
+      </c>
+      <c r="H6">
         <v>97.28421410094825</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>95.84252205580394</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_Block_Bootstrapping.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_Block_Bootstrapping.xlsx
@@ -447,28 +447,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>90.24289326583003</v>
+        <v>90.25802617279979</v>
       </c>
       <c r="C2">
-        <v>98.1782788587816</v>
+        <v>98.17858075047474</v>
       </c>
       <c r="D2">
-        <v>99.19920125579111</v>
+        <v>99.19841347771063</v>
       </c>
       <c r="E2">
-        <v>98.73987505215101</v>
+        <v>98.73965487873329</v>
       </c>
       <c r="F2">
-        <v>98.17220659814672</v>
+        <v>98.1707718458906</v>
       </c>
       <c r="G2">
-        <v>97.70571711987347</v>
+        <v>97.60766900206713</v>
       </c>
       <c r="H2">
-        <v>97.28106676651231</v>
+        <v>97.23025891897113</v>
       </c>
       <c r="I2">
-        <v>95.85272679458778</v>
+        <v>95.95010523862121</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -476,28 +476,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>86.66420041677169</v>
+        <v>86.65801909140517</v>
       </c>
       <c r="C3">
-        <v>98.99261120101555</v>
+        <v>98.99214172914175</v>
       </c>
       <c r="D3">
-        <v>99.58964837833082</v>
+        <v>99.58938752217617</v>
       </c>
       <c r="E3">
-        <v>98.8449383378661</v>
+        <v>98.8451734272339</v>
       </c>
       <c r="F3">
-        <v>98.3636267153795</v>
+        <v>98.36404680721577</v>
       </c>
       <c r="G3">
-        <v>97.83009366944107</v>
+        <v>97.87915891590417</v>
       </c>
       <c r="H3">
-        <v>97.37171014259977</v>
+        <v>97.30810821208668</v>
       </c>
       <c r="I3">
-        <v>95.91010739096014</v>
+        <v>95.92295137353403</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -505,28 +505,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>94.33738164400928</v>
+        <v>94.33794140633918</v>
       </c>
       <c r="C4">
-        <v>97.86412062728314</v>
+        <v>97.86410904130797</v>
       </c>
       <c r="D4">
-        <v>99.10213018444192</v>
+        <v>99.10240585139249</v>
       </c>
       <c r="E4">
-        <v>98.57116311647809</v>
+        <v>98.56997677196595</v>
       </c>
       <c r="F4">
-        <v>98.23898967161837</v>
+        <v>98.24016111901749</v>
       </c>
       <c r="G4">
-        <v>97.75969875795748</v>
+        <v>97.73569259726965</v>
       </c>
       <c r="H4">
-        <v>97.25593664026223</v>
+        <v>97.23370291024254</v>
       </c>
       <c r="I4">
-        <v>95.86225576904164</v>
+        <v>95.87340656069966</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -534,28 +534,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>92.29346765361748</v>
+        <v>92.29075072849167</v>
       </c>
       <c r="C5">
-        <v>97.95808761130533</v>
+        <v>97.95784747944458</v>
       </c>
       <c r="D5">
-        <v>99.1528054808286</v>
+        <v>99.1527664786253</v>
       </c>
       <c r="E5">
-        <v>98.70687509320229</v>
+        <v>98.70693780434931</v>
       </c>
       <c r="F5">
-        <v>98.17514546641543</v>
+        <v>98.17554027869922</v>
       </c>
       <c r="G5">
-        <v>97.70414593527714</v>
+        <v>97.67689930820146</v>
       </c>
       <c r="H5">
-        <v>97.20486814516414</v>
+        <v>97.18186316455049</v>
       </c>
       <c r="I5">
-        <v>95.78470893019076</v>
+        <v>95.91063374087662</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -563,28 +563,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>92.14276577482143</v>
+        <v>92.15539813973676</v>
       </c>
       <c r="C6">
-        <v>98.0929579474619</v>
+        <v>98.09314307744701</v>
       </c>
       <c r="D6">
-        <v>99.19940667875612</v>
+        <v>99.19970684593414</v>
       </c>
       <c r="E6">
-        <v>98.71080731321884</v>
+        <v>98.71069787622892</v>
       </c>
       <c r="F6">
-        <v>98.13576439212216</v>
+        <v>98.13588759188528</v>
       </c>
       <c r="G6">
-        <v>97.75012670431555</v>
+        <v>97.77625149559536</v>
       </c>
       <c r="H6">
-        <v>97.28421410094825</v>
+        <v>97.20949062948701</v>
       </c>
       <c r="I6">
-        <v>95.84252205580394</v>
+        <v>95.84815405099866</v>
       </c>
     </row>
   </sheetData>
